--- a/output/fit_clients/fit_round_477.xlsx
+++ b/output/fit_clients/fit_round_477.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2171275393.074629</v>
+        <v>1539660902.748105</v>
       </c>
       <c r="F2" t="n">
-        <v>0.111593994187526</v>
+        <v>0.09809264981860233</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04272404486665147</v>
+        <v>0.03534425797081298</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1085637715.201426</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1941207128.09661</v>
+        <v>2205069455.190554</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1825068565267783</v>
+        <v>0.1565924293949733</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04219835651252089</v>
+        <v>0.05061970505270192</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>970603595.0188403</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3212287457.073237</v>
+        <v>4077700435.470894</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1496375713744612</v>
+        <v>0.1413306055821277</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02694559243901523</v>
+        <v>0.02484952351470497</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>172</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1606143686.92933</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3597138182.753736</v>
+        <v>3814545143.437114</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09931600752344669</v>
+        <v>0.06772092479228765</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03089270659730176</v>
+        <v>0.04260398822501135</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>176</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1798569121.717519</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2774121868.481386</v>
+        <v>2261743074.814624</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1430244454150984</v>
+        <v>0.1246147740168123</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03883868365262337</v>
+        <v>0.04633941439415479</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>90</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1387060880.08079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2064530383.811843</v>
+        <v>2798503336.70354</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0814827769173448</v>
+        <v>0.06508134635723374</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04568106745622574</v>
+        <v>0.03220720183470072</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>150</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1032265246.927283</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3122885098.262964</v>
+        <v>2701637670.284106</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2000499898487701</v>
+        <v>0.1958692299956865</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02879267668409161</v>
+        <v>0.0235751945649444</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>152</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1561442619.229126</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1547542526.245153</v>
+        <v>2191977433.204222</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1525168655036229</v>
+        <v>0.1893674252793647</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03553081562408572</v>
+        <v>0.02607511550124637</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>773771352.5295291</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5904661993.587129</v>
+        <v>5922666564.763064</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1546295441633007</v>
+        <v>0.1905114646355346</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04913644128871267</v>
+        <v>0.04116737990508501</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>201</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2952331166.160312</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3045966386.09853</v>
+        <v>2689490408.719146</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1517272557126247</v>
+        <v>0.1490009170928381</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03282650003345023</v>
+        <v>0.03232899418269396</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>197</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1522983139.191196</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3231200371.87056</v>
+        <v>2188249862.202023</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1790717860200015</v>
+        <v>0.1321476239768241</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04086914615335994</v>
+        <v>0.05168078556249091</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>162</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1615600225.144407</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3821988567.398945</v>
+        <v>4080498411.823718</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08266633302084576</v>
+        <v>0.07881885395728445</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02878045833554318</v>
+        <v>0.0291932811830477</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>160</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1910994347.690563</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2451428066.816879</v>
+        <v>3430373546.582693</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1779705339876284</v>
+        <v>0.120621035164133</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03050925053834136</v>
+        <v>0.02808698278582479</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>152</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1225714107.594363</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1793661773.321381</v>
+        <v>1819311463.06778</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08630509566648897</v>
+        <v>0.1090324230048631</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04322181165887624</v>
+        <v>0.04255514093263037</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>896831038.7672137</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2777836746.523701</v>
+        <v>2468234867.510138</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09623246692046111</v>
+        <v>0.08712277836405834</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03262947630226105</v>
+        <v>0.04743302418777054</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>99</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1388918379.28228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4388953199.222995</v>
+        <v>4262298308.044188</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1447583149898062</v>
+        <v>0.1192659931497239</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0474055745598499</v>
+        <v>0.03877043840574616</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>142</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2194476614.998867</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3739497657.707489</v>
+        <v>3728409906.165459</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1288305610283607</v>
+        <v>0.1661382305230162</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02653504031449643</v>
+        <v>0.02607150322926009</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>156</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1869748805.551245</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>921442003.2629058</v>
+        <v>1127033172.81293</v>
       </c>
       <c r="F19" t="n">
-        <v>0.17033041598403</v>
+        <v>0.151810551539094</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02339225990012597</v>
+        <v>0.02720851420457981</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>460721011.8061914</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2477102461.112083</v>
+        <v>1912126625.630388</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1275375667264128</v>
+        <v>0.1060556869777019</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02553666338658405</v>
+        <v>0.02136874594718761</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>68</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1238551206.090224</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2568558205.650223</v>
+        <v>2529444969.72927</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06572592288396338</v>
+        <v>0.07411268037274699</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04282347746479667</v>
+        <v>0.04149650695346847</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>36</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1284279084.430587</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3122479645.697886</v>
+        <v>3568691656.32918</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1191557750669555</v>
+        <v>0.1161272467550542</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04601492000424569</v>
+        <v>0.05532671526030489</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>133</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1561239877.067133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1300751018.260621</v>
+        <v>1302139270.120302</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1410222678767674</v>
+        <v>0.1769584912764937</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05179952918408662</v>
+        <v>0.03508976326556663</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>650375528.6661756</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3103880530.624552</v>
+        <v>3577821742.78896</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1499657311618754</v>
+        <v>0.1295569584953771</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02872873660023947</v>
+        <v>0.02709242913579017</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>140</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1551940293.590549</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1189956037.859379</v>
+        <v>1381833591.471553</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1020735813090307</v>
+        <v>0.110140361017682</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02007953063337168</v>
+        <v>0.03023864991428508</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>594978039.2349474</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>924379569.4737762</v>
+        <v>1174534948.539176</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08172119553968833</v>
+        <v>0.1203061976655369</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02437502928394583</v>
+        <v>0.03743800199849349</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>462189738.3821014</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3425076597.440231</v>
+        <v>3517829537.7866</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09843641178492883</v>
+        <v>0.1515850716298244</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0195098250522259</v>
+        <v>0.02654824096052852</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>122</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1712538337.431462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2683420559.05903</v>
+        <v>3382051329.837219</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1016797585964758</v>
+        <v>0.1003864080271697</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03929956292647854</v>
+        <v>0.0388550965571654</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>155</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1341710263.322803</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4215580879.002949</v>
+        <v>4827458777.541903</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1364774209567586</v>
+        <v>0.129874431894355</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03138412775248116</v>
+        <v>0.04264946792452889</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>210</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2107790441.412121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2339732711.389937</v>
+        <v>1459666797.89265</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1350685032501551</v>
+        <v>0.1153643033066549</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02452803281791028</v>
+        <v>0.03379075871447067</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1169866431.870496</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1099505414.364583</v>
+        <v>1202322929.329669</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1002460243657014</v>
+        <v>0.1107069748998748</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0418546148969968</v>
+        <v>0.03231239732642053</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>549752682.3252776</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1342471414.334402</v>
+        <v>1792744506.427805</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0733420781945472</v>
+        <v>0.1088737299982779</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02884101047126667</v>
+        <v>0.02443524838749046</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>671235742.8968672</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2019916821.344857</v>
+        <v>2765100027.914546</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1344296532278104</v>
+        <v>0.1512619631693039</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04209630214980461</v>
+        <v>0.04365245060423943</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>145</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1009958489.808624</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1564330996.904358</v>
+        <v>1208955165.975938</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09184838683224288</v>
+        <v>0.08906834293883369</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02247795317796589</v>
+        <v>0.02253051257056397</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>782165443.7530434</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1301754442.432015</v>
+        <v>923439458.4310353</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1168791536499835</v>
+        <v>0.1138247733718783</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02846182970222193</v>
+        <v>0.03610953500835667</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>650877173.6471503</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2931847624.991971</v>
+        <v>3071179827.218433</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1652550858194739</v>
+        <v>0.1135816259368475</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02523015013688709</v>
+        <v>0.02186672930060989</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>121</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1465923799.910152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2036372546.328057</v>
+        <v>2750244306.129267</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1016397778308008</v>
+        <v>0.1119079861348822</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03346618241172427</v>
+        <v>0.03019613926695722</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>128</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1018186305.477923</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2167506698.082504</v>
+        <v>2194619196.512507</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1078264742461323</v>
+        <v>0.1000602593885922</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02420564373081426</v>
+        <v>0.02918643415666416</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1083753304.025559</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1987273540.424535</v>
+        <v>1496924275.404545</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1565162312081548</v>
+        <v>0.1833580840191258</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02339674485679239</v>
+        <v>0.02721582281199171</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>993636766.7368189</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1278929402.078916</v>
+        <v>1502714140.211907</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1214736394996251</v>
+        <v>0.1243898156805327</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04014906562173195</v>
+        <v>0.0557782955714341</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>639464722.6049898</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2925449567.623015</v>
+        <v>2249280972.284751</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1531852602989383</v>
+        <v>0.1249339606605671</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03902896867362306</v>
+        <v>0.0466202312771265</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>115</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1462724767.42607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2832168572.628212</v>
+        <v>4102165133.2165</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07866094076644921</v>
+        <v>0.09313793179427927</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02884978441717063</v>
+        <v>0.04315007079149043</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>156</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1416084235.245859</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2701195807.6671</v>
+        <v>2875398394.577195</v>
       </c>
       <c r="F43" t="n">
-        <v>0.175735235629337</v>
+        <v>0.1898074430539266</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0167012111967903</v>
+        <v>0.01798131521991075</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>166</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1350597932.272392</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1479398099.41455</v>
+        <v>1513947657.857234</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08934858771662417</v>
+        <v>0.09166221515049133</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03132596535875182</v>
+        <v>0.03630392151378393</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>739699052.2055726</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1596106719.386523</v>
+        <v>1914403539.455262</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1219255878223367</v>
+        <v>0.1443883031985572</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03411671703540493</v>
+        <v>0.05453141116994766</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>798053309.8801012</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4305083083.220387</v>
+        <v>4747164047.714284</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1244087501865094</v>
+        <v>0.1625035774555702</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04089162670187579</v>
+        <v>0.0480947575940654</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>169</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2152541528.617431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3253053229.538902</v>
+        <v>4329168139.765701</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2024927341132149</v>
+        <v>0.1816729052978246</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05611664367602984</v>
+        <v>0.05533420363551071</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>131</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1626526571.643942</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3498768328.915071</v>
+        <v>4023432558.266864</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09863920438174537</v>
+        <v>0.1020814552002513</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02696363814739213</v>
+        <v>0.02613688007272316</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>155</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1749384227.982177</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1593363396.250793</v>
+        <v>1599780164.970749</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1740690744318278</v>
+        <v>0.1444898854366692</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02759580843422018</v>
+        <v>0.04055096769215356</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>796681715.644912</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3400482024.609335</v>
+        <v>3054620713.856073</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1567098608905048</v>
+        <v>0.1690909410815045</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03495615418081945</v>
+        <v>0.04858065449535672</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>163</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1700241043.686401</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1068711306.760737</v>
+        <v>990266209.8073908</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1613515405852828</v>
+        <v>0.1256896841835749</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03394704292289171</v>
+        <v>0.03751102332096534</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>534355726.2227488</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4719993902.812321</v>
+        <v>4423301521.571652</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09312500686766907</v>
+        <v>0.08583674707790746</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04387666513861426</v>
+        <v>0.04922287698901844</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>196</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2359996965.531714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2866273055.806988</v>
+        <v>3310201024.910828</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1825602913219181</v>
+        <v>0.176139665347563</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02340886362879372</v>
+        <v>0.03388626950228219</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>138</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1433136569.614367</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3142578896.495356</v>
+        <v>4192946981.60907</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1323953380202333</v>
+        <v>0.1346112025022697</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05272241088898207</v>
+        <v>0.04449572841228021</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>155</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1571289445.015426</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4409961187.263558</v>
+        <v>4278229469.15277</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1939075046825112</v>
+        <v>0.2112872808884549</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02527742643860129</v>
+        <v>0.02732186119077085</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>136</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2204980586.684007</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1833401709.738672</v>
+        <v>1824593143.282346</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1635922613397754</v>
+        <v>0.1500899059847816</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04812976749637689</v>
+        <v>0.05641691242770901</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>916700847.7574918</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4322377671.195284</v>
+        <v>3862514134.025351</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1587493716414197</v>
+        <v>0.1144292385907519</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02183569149719846</v>
+        <v>0.01947256817095165</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>151</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2161188951.052868</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1343797150.162949</v>
+        <v>1900598785.309814</v>
       </c>
       <c r="F58" t="n">
-        <v>0.144689960521593</v>
+        <v>0.1364639676783609</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02573300667319474</v>
+        <v>0.03962319670364315</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>671898620.4920522</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3560275426.92386</v>
+        <v>3681556293.43127</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09172796380767081</v>
+        <v>0.09449876823982364</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03894669044394965</v>
+        <v>0.03396381915298947</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>133</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1780137710.645499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3531656861.963678</v>
+        <v>3144972403.519449</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1312344237404877</v>
+        <v>0.1684864007344857</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02317234166424133</v>
+        <v>0.03106044245125873</v>
       </c>
       <c r="H60" t="b">
         <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>147</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1765828557.120025</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2464721921.92017</v>
+        <v>2045702704.308747</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1749198296847493</v>
+        <v>0.1367964100674154</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02738695337951982</v>
+        <v>0.02172144738177309</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>163</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1232360991.927866</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1481249103.763868</v>
+        <v>2043139283.671411</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1337736333149817</v>
+        <v>0.1199551639479522</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0448919599362699</v>
+        <v>0.04865281586739045</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>740624532.1678417</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5048553478.694802</v>
+        <v>5384432699.693827</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08089423184183442</v>
+        <v>0.07357638072226765</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03726916497757546</v>
+        <v>0.02946197559636217</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>137</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2524276754.954592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4051076683.226244</v>
+        <v>4656594971.291884</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1597606649719283</v>
+        <v>0.1576734597706158</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02670069844214829</v>
+        <v>0.02206683710949699</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>148</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2025538381.07844</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4526517577.434466</v>
+        <v>3822790841.634523</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1649742641500359</v>
+        <v>0.123542297427165</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02078466496873636</v>
+        <v>0.02381478551573204</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>171</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2263258775.903559</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4207049273.911727</v>
+        <v>3484452381.639117</v>
       </c>
       <c r="F66" t="n">
-        <v>0.09918321442699758</v>
+        <v>0.1111929146835008</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04749561982006853</v>
+        <v>0.04037905721873068</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>139</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2103524621.694197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2992433565.781322</v>
+        <v>2803075049.414134</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06898415564093628</v>
+        <v>0.06452079754627563</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03431172163843829</v>
+        <v>0.04518476067984218</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>153</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1496216801.784504</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4787161839.504424</v>
+        <v>4019983482.937945</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1175495395756135</v>
+        <v>0.1150678705979715</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03501226396839693</v>
+        <v>0.04263197669150663</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>151</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2393580963.256507</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1530904363.318279</v>
+        <v>1901518686.113496</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1762236298945862</v>
+        <v>0.1196922167050917</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04306225620678188</v>
+        <v>0.05463850283108358</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>765452125.9595876</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3623009509.005398</v>
+        <v>3714063546.203682</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09994663051500165</v>
+        <v>0.09947515233927424</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03064089143326998</v>
+        <v>0.03905937535195524</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>136</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1811504772.036557</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5562932680.309616</v>
+        <v>4801520621.04437</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1201314268740275</v>
+        <v>0.1370440363899237</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0231772807254015</v>
+        <v>0.03141652555529783</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>173</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2781466487.945204</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1560165897.873437</v>
+        <v>1833470486.825449</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09251611482183576</v>
+        <v>0.09274805750356874</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04735368968437444</v>
+        <v>0.05137867071501184</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>780082966.2116498</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2727356746.74119</v>
+        <v>3445218264.363322</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1077574973085128</v>
+        <v>0.08983840614696371</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03613124989509666</v>
+        <v>0.03701295263798785</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>180</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1363678394.346877</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3052707204.947699</v>
+        <v>3405592025.029138</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1607310842697287</v>
+        <v>0.1238815099446935</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03313171791563413</v>
+        <v>0.0275958990937844</v>
       </c>
       <c r="H74" t="b">
         <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>162</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1526353663.360118</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2480493858.951858</v>
+        <v>1841567792.120493</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1077473184029396</v>
+        <v>0.1517466654749293</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03293128818394499</v>
+        <v>0.03339116147462606</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1240246848.703808</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4456369957.508392</v>
+        <v>4105061229.455021</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1207438647930399</v>
+        <v>0.1033572910004664</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03357696234075941</v>
+        <v>0.03353795509841247</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2228184982.603622</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1697146754.263425</v>
+        <v>1797337368.584635</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1489532097055744</v>
+        <v>0.1336128568346839</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02268915206153344</v>
+        <v>0.02105664063612462</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>848573393.9270474</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4393026707.622676</v>
+        <v>4648796565.468086</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09243597638879308</v>
+        <v>0.09991452890718257</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05459818625231293</v>
+        <v>0.05626944577923117</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>166</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2196513291.433643</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1518506560.058186</v>
+        <v>1461217621.965835</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1719296897832295</v>
+        <v>0.1547763451230775</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02667436857956881</v>
+        <v>0.03283738795652239</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>759253317.4651765</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3618154739.933927</v>
+        <v>3864179431.088852</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1108621711683392</v>
+        <v>0.08880077478209432</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02536852739277392</v>
+        <v>0.03053880188734333</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>105</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1809077350.462135</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3196095518.668808</v>
+        <v>3643509797.716283</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1023265591244737</v>
+        <v>0.128242210051545</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02152343661317355</v>
+        <v>0.02958417164843897</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>110</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1598047692.705272</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5277368430.061493</v>
+        <v>4275242555.393015</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2173528300742088</v>
+        <v>0.1625986864527869</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01992862849441762</v>
+        <v>0.02709250906085189</v>
       </c>
       <c r="H82" t="b">
         <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>167</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2638684183.526512</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2236137476.14391</v>
+        <v>2368726784.495916</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1239708935482392</v>
+        <v>0.1245319412850061</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03069979318722079</v>
+        <v>0.03625126322764153</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1118068752.822979</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2344545072.618284</v>
+        <v>1835416311.997537</v>
       </c>
       <c r="F84" t="n">
-        <v>0.113281021009124</v>
+        <v>0.1140616949614119</v>
       </c>
       <c r="G84" t="n">
-        <v>0.051665742103135</v>
+        <v>0.0470733399551136</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>7</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1172272490.88658</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3301998118.148274</v>
+        <v>2616183831.59033</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1497782811450023</v>
+        <v>0.1530891185559005</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04144197682401379</v>
+        <v>0.04697926127693001</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>179</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1650999152.58893</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1826432480.792089</v>
+        <v>2235497999.891377</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1373007943294788</v>
+        <v>0.1417935579195183</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02710365151832777</v>
+        <v>0.01742698422502996</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>60</v>
-      </c>
-      <c r="J86" t="n">
-        <v>913216243.8979886</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>964677126.5854203</v>
+        <v>1465254038.774495</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1760847369805221</v>
+        <v>0.1319600466731177</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03085340833908444</v>
+        <v>0.03447593641979325</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>482338558.5838137</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3442895936.464579</v>
+        <v>2310423337.519881</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1157393334917154</v>
+        <v>0.1230480963033013</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02431583433157042</v>
+        <v>0.03375654661293183</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>189</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1721448042.462582</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2701836095.981214</v>
+        <v>3384234831.636454</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09773733588102547</v>
+        <v>0.1409645857376559</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03823141853900726</v>
+        <v>0.02972245593627111</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>162</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1350918107.971578</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1479057313.328194</v>
+        <v>2095057218.886857</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0832449789174564</v>
+        <v>0.1253558933205499</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03922668161119004</v>
+        <v>0.0539692850600537</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>739528631.6166798</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1514539456.844472</v>
+        <v>1892904446.705759</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1551871565828209</v>
+        <v>0.191478156341864</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04666830055271345</v>
+        <v>0.06100711065471465</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>757269765.4239796</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1980072920.357507</v>
+        <v>2236242637.597974</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07327199084020226</v>
+        <v>0.07820169891243131</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03580069818257648</v>
+        <v>0.03660459133509621</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>131</v>
-      </c>
-      <c r="J92" t="n">
-        <v>990036404.9212401</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3726852117.695277</v>
+        <v>3646048692.877766</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09011517111379226</v>
+        <v>0.1251515629850491</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04500245463422848</v>
+        <v>0.03382016190365084</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>140</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1863426077.148148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1884002638.050474</v>
+        <v>1807545126.776651</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1510710899422369</v>
+        <v>0.1390559820167949</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03694793586976791</v>
+        <v>0.03663632377002658</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3</v>
-      </c>
-      <c r="J94" t="n">
-        <v>942001302.3585575</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2754755730.92077</v>
+        <v>2900776139.663426</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09584907792143225</v>
+        <v>0.1218819209556541</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03716330124487843</v>
+        <v>0.03835890588966499</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>118</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1377377883.038907</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1854676279.725569</v>
+        <v>1581994528.20055</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1050754874969504</v>
+        <v>0.1076241962392213</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04578912452575375</v>
+        <v>0.02915622884122615</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>927338142.3702415</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4524438609.312798</v>
+        <v>5285868788.672893</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1498254710883264</v>
+        <v>0.1524500651920983</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02132050829531369</v>
+        <v>0.02535868761295483</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>152</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2262219403.234146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3012367455.812448</v>
+        <v>3458143375.492908</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1102505563583684</v>
+        <v>0.1215373125585305</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02497925576165064</v>
+        <v>0.03282450496004965</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>127</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1506183713.453109</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2550036376.404323</v>
+        <v>2150089117.456172</v>
       </c>
       <c r="F99" t="n">
-        <v>0.139903951248608</v>
+        <v>0.1055564096696835</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03516301058411105</v>
+        <v>0.02838437175828213</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>149</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1275018141.581439</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4136413505.663218</v>
+        <v>4680308900.309049</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1401906817827283</v>
+        <v>0.1725240213741219</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02761620855394307</v>
+        <v>0.02073028295114344</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>147</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2068206834.416875</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3413167295.955618</v>
+        <v>2172101499.607246</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1456215245992203</v>
+        <v>0.2014222515861709</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03886088770616725</v>
+        <v>0.04419534108215944</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>195</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1706583791.642559</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_477.xlsx
+++ b/output/fit_clients/fit_round_477.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1539660902.748105</v>
+        <v>1851932175.35512</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09809264981860233</v>
+        <v>0.07795011205654144</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03534425797081298</v>
+        <v>0.04351768042224967</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2205069455.190554</v>
+        <v>2567844843.525669</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1565924293949733</v>
+        <v>0.1617934285575964</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05061970505270192</v>
+        <v>0.03696081187429653</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4077700435.470894</v>
+        <v>3442275106.253679</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1413306055821277</v>
+        <v>0.126605557320715</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02484952351470497</v>
+        <v>0.03038840550790402</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -570,16 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3814545143.437114</v>
+        <v>2708375203.851754</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06772092479228765</v>
+        <v>0.08482930452068217</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04260398822501135</v>
+        <v>0.04870917732596027</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2261743074.814624</v>
+        <v>1777284983.831284</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1246147740168123</v>
+        <v>0.1155299474103505</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04633941439415479</v>
+        <v>0.04454809361856196</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2798503336.70354</v>
+        <v>2071313537.5323</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06508134635723374</v>
+        <v>0.06592560890547013</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03220720183470072</v>
+        <v>0.04669321248840461</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2701637670.284106</v>
+        <v>2819339458.16786</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1958692299956865</v>
+        <v>0.1340821625070397</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0235751945649444</v>
+        <v>0.03300423714732457</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2191977433.204222</v>
+        <v>1568491908.799051</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1893674252793647</v>
+        <v>0.1199248835685205</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02607511550124637</v>
+        <v>0.03343588468641654</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5922666564.763064</v>
+        <v>5489844853.853625</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1905114646355346</v>
+        <v>0.2148488217718527</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04116737990508501</v>
+        <v>0.04860860280104919</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2689490408.719146</v>
+        <v>2965821040.040716</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1490009170928381</v>
+        <v>0.1220439039650185</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03232899418269396</v>
+        <v>0.03349559524284033</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2188249862.202023</v>
+        <v>2601613886.725015</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1321476239768241</v>
+        <v>0.1991693680576381</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05168078556249091</v>
+        <v>0.03398407039460222</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,13 +794,13 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4080498411.823718</v>
+        <v>5018486206.023751</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07881885395728445</v>
+        <v>0.1016538950102123</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0291932811830477</v>
+        <v>0.01918554490590017</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3430373546.582693</v>
+        <v>2511242735.18823</v>
       </c>
       <c r="F14" t="n">
-        <v>0.120621035164133</v>
+        <v>0.1830434590418366</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02808698278582479</v>
+        <v>0.04273022277096757</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1819311463.06778</v>
+        <v>1226741534.716938</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1090324230048631</v>
+        <v>0.06582880413538766</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04255514093263037</v>
+        <v>0.04934617502639779</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2468234867.510138</v>
+        <v>1810264846.081028</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08712277836405834</v>
+        <v>0.09073828432883865</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04743302418777054</v>
+        <v>0.03405121453905015</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4262298308.044188</v>
+        <v>3605053341.720046</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1192659931497239</v>
+        <v>0.1747269553315815</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03877043840574616</v>
+        <v>0.03971004942089008</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3728409906.165459</v>
+        <v>2795160747.943784</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1661382305230162</v>
+        <v>0.1611442021955052</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02607150322926009</v>
+        <v>0.03215000100511101</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1127033172.81293</v>
+        <v>870197751.4151075</v>
       </c>
       <c r="F19" t="n">
-        <v>0.151810551539094</v>
+        <v>0.1509741225970152</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02720851420457981</v>
+        <v>0.02232025342458093</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1912126625.630388</v>
+        <v>2162139833.005658</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1060556869777019</v>
+        <v>0.1007463481292618</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02136874594718761</v>
+        <v>0.0309793327762132</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2529444969.72927</v>
+        <v>1926608646.112696</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07411268037274699</v>
+        <v>0.08523781726154936</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04149650695346847</v>
+        <v>0.03288690958221466</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3568691656.32918</v>
+        <v>2933515208.60387</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1161272467550542</v>
+        <v>0.1398456878820542</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05532671526030489</v>
+        <v>0.03787444737303653</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1302139270.120302</v>
+        <v>1242302986.0514</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1769584912764937</v>
+        <v>0.155380341821285</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03508976326556663</v>
+        <v>0.05402751729070841</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3577821742.78896</v>
+        <v>2565895715.218141</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1295569584953771</v>
+        <v>0.1028040312706548</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02709242913579017</v>
+        <v>0.03306037430716837</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1381833591.471553</v>
+        <v>1010171718.097342</v>
       </c>
       <c r="F25" t="n">
-        <v>0.110140361017682</v>
+        <v>0.08099007074610266</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03023864991428508</v>
+        <v>0.02251090142929178</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1174534948.539176</v>
+        <v>1311807343.405992</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1203061976655369</v>
+        <v>0.1071728816956694</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03743800199849349</v>
+        <v>0.03023088895613249</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3517829537.7866</v>
+        <v>3140988180.283593</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1515850716298244</v>
+        <v>0.1063988498384012</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02654824096052852</v>
+        <v>0.02641554416127522</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3382051329.837219</v>
+        <v>3676680335.778988</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1003864080271697</v>
+        <v>0.1286201158586113</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0388550965571654</v>
+        <v>0.03542381557873239</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4827458777.541903</v>
+        <v>4113073797.263948</v>
       </c>
       <c r="F29" t="n">
-        <v>0.129874431894355</v>
+        <v>0.09756160850163376</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04264946792452889</v>
+        <v>0.03250151898424003</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1459666797.89265</v>
+        <v>1801657587.191201</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1153643033066549</v>
+        <v>0.1281783995358892</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03379075871447067</v>
+        <v>0.03321810893067995</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1202322929.329669</v>
+        <v>933246315.0620201</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1107069748998748</v>
+        <v>0.07066975812843565</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03231239732642053</v>
+        <v>0.04574737740862677</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1792744506.427805</v>
+        <v>1782918952.496014</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1088737299982779</v>
+        <v>0.1123169362384082</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02443524838749046</v>
+        <v>0.03296262889015534</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2765100027.914546</v>
+        <v>2487091205.141333</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1512619631693039</v>
+        <v>0.1435420170734866</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04365245060423943</v>
+        <v>0.05003677990033145</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,22 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1208955165.975938</v>
+        <v>1476433100.974638</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08906834293883369</v>
+        <v>0.08243450034349623</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02253051257056397</v>
+        <v>0.02298178354422083</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>923439458.4310353</v>
+        <v>872986317.6298985</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1138247733718783</v>
+        <v>0.0785221776181768</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03610953500835667</v>
+        <v>0.03974530627128152</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3071179827.218433</v>
+        <v>2690733200.719863</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1135816259368475</v>
+        <v>0.1409811414134644</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02186672930060989</v>
+        <v>0.02257767218969489</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2750244306.129267</v>
+        <v>2422515947.669063</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1119079861348822</v>
+        <v>0.09043540373726497</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03019613926695722</v>
+        <v>0.03275570405755593</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2194619196.512507</v>
+        <v>1623772254.148325</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1000602593885922</v>
+        <v>0.0771482834217898</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02918643415666416</v>
+        <v>0.02862278902065932</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1496924275.404545</v>
+        <v>1393105346.569803</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1833580840191258</v>
+        <v>0.1551893258092378</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02721582281199171</v>
+        <v>0.03246463764236411</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1502714140.211907</v>
+        <v>1415672077.458282</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1243898156805327</v>
+        <v>0.138643781322529</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0557782955714341</v>
+        <v>0.05000031731801129</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2249280972.284751</v>
+        <v>2088817096.294766</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1249339606605671</v>
+        <v>0.1421366158770416</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0466202312771265</v>
+        <v>0.03588314154245457</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4102165133.2165</v>
+        <v>3346264719.291554</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09313793179427927</v>
+        <v>0.1132166611457768</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04315007079149043</v>
+        <v>0.0403258175504926</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2875398394.577195</v>
+        <v>2297010023.602022</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1898074430539266</v>
+        <v>0.1879724747175013</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01798131521991075</v>
+        <v>0.02382547130879355</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1513947657.857234</v>
+        <v>2074487681.905473</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09166221515049133</v>
+        <v>0.1020193950048808</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03630392151378393</v>
+        <v>0.03485910905151347</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1914403539.455262</v>
+        <v>2060919505.297825</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1443883031985572</v>
+        <v>0.1439582834748565</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05453141116994766</v>
+        <v>0.0469277889120522</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4747164047.714284</v>
+        <v>4674441079.889051</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1625035774555702</v>
+        <v>0.1394860497538701</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0480947575940654</v>
+        <v>0.05605116120968404</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4329168139.765701</v>
+        <v>4884902935.282191</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1816729052978246</v>
+        <v>0.1631379910837717</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05533420363551071</v>
+        <v>0.04455340962144489</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,16 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4023432558.266864</v>
+        <v>4200031491.076161</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1020814552002513</v>
+        <v>0.08038405779457174</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02613688007272316</v>
+        <v>0.02574694142807376</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1599780164.970749</v>
+        <v>1758628786.58656</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1444898854366692</v>
+        <v>0.1597570039079098</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04055096769215356</v>
+        <v>0.03061433047289899</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3054620713.856073</v>
+        <v>3898204846.728327</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1690909410815045</v>
+        <v>0.1514436309036053</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04858065449535672</v>
+        <v>0.04409130990126002</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>990266209.8073908</v>
+        <v>1310893479.289655</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1256896841835749</v>
+        <v>0.1402868420998059</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03751102332096534</v>
+        <v>0.04234896895207056</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4423301521.571652</v>
+        <v>5274318659.790687</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08583674707790746</v>
+        <v>0.1163175012466987</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04922287698901844</v>
+        <v>0.05893781059966526</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3310201024.910828</v>
+        <v>3728400751.244322</v>
       </c>
       <c r="F53" t="n">
-        <v>0.176139665347563</v>
+        <v>0.1626632234474743</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03388626950228219</v>
+        <v>0.03055058149400397</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4192946981.60907</v>
+        <v>4049863558.12261</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1346112025022697</v>
+        <v>0.1151842943206616</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04449572841228021</v>
+        <v>0.04732559717146797</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4278229469.15277</v>
+        <v>4738420507.591947</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2112872808884549</v>
+        <v>0.1802959286839751</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02732186119077085</v>
+        <v>0.03096952496727589</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1824593143.282346</v>
+        <v>1291684692.001077</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1500899059847816</v>
+        <v>0.1220001232391359</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05641691242770901</v>
+        <v>0.04391611845568456</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3862514134.025351</v>
+        <v>4269389287.312047</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1144292385907519</v>
+        <v>0.1532271144208601</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01947256817095165</v>
+        <v>0.02079166121374494</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1900598785.309814</v>
+        <v>1414184616.834118</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1364639676783609</v>
+        <v>0.2022797843998281</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03962319670364315</v>
+        <v>0.03628421326088827</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3681556293.43127</v>
+        <v>5365168410.664624</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09449876823982364</v>
+        <v>0.1236292540652239</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03396381915298947</v>
+        <v>0.04864906156602272</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,16 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3144972403.519449</v>
+        <v>2337811111.948769</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1684864007344857</v>
+        <v>0.1956335250475365</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03106044245125873</v>
+        <v>0.03048854833322827</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2045702704.308747</v>
+        <v>3407661943.863211</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1367964100674154</v>
+        <v>0.1782715607416658</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02172144738177309</v>
+        <v>0.02048627792246742</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2043139283.671411</v>
+        <v>1778613865.270498</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1199551639479522</v>
+        <v>0.1917239576276498</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04865281586739045</v>
+        <v>0.04555308177705358</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5384432699.693827</v>
+        <v>5129876401.268909</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07357638072226765</v>
+        <v>0.08407731142562209</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02946197559636217</v>
+        <v>0.03647245102365861</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4656594971.291884</v>
+        <v>5453394777.515697</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1576734597706158</v>
+        <v>0.1578753850277085</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02206683710949699</v>
+        <v>0.02966406242104311</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3822790841.634523</v>
+        <v>4012376545.337271</v>
       </c>
       <c r="F65" t="n">
-        <v>0.123542297427165</v>
+        <v>0.148995402366684</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02381478551573204</v>
+        <v>0.02734435912638011</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3484452381.639117</v>
+        <v>5203171878.128813</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1111929146835008</v>
+        <v>0.1407044665195905</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04037905721873068</v>
+        <v>0.05063111258731064</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2803075049.414134</v>
+        <v>3073303220.9603</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06452079754627563</v>
+        <v>0.0908020092564492</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04518476067984218</v>
+        <v>0.03568157516282865</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4019983482.937945</v>
+        <v>3873824327.056669</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1150678705979715</v>
+        <v>0.141323857012131</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04263197669150663</v>
+        <v>0.04484230201081207</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1901518686.113496</v>
+        <v>1810433066.5176</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1196922167050917</v>
+        <v>0.1156605166800758</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05463850283108358</v>
+        <v>0.04953785996886882</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3714063546.203682</v>
+        <v>3414286681.359606</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09947515233927424</v>
+        <v>0.0941049319320203</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03905937535195524</v>
+        <v>0.04325912221178472</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4801520621.04437</v>
+        <v>4322575246.797619</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1370440363899237</v>
+        <v>0.1689924775953667</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03141652555529783</v>
+        <v>0.02976951579658142</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1833470486.825449</v>
+        <v>2130344816.933186</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09274805750356874</v>
+        <v>0.08636806514543727</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05137867071501184</v>
+        <v>0.04280205503502166</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3445218264.363322</v>
+        <v>2916809939.699821</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08983840614696371</v>
+        <v>0.106813472250611</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03701295263798785</v>
+        <v>0.04817100557481527</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3405592025.029138</v>
+        <v>3653833273.519989</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1238815099446935</v>
+        <v>0.118636284970799</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0275958990937844</v>
+        <v>0.02480886412222037</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1841567792.120493</v>
+        <v>1827556125.30804</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1517466654749293</v>
+        <v>0.1115186325098314</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03339116147462606</v>
+        <v>0.03751288858420455</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4105061229.455021</v>
+        <v>4570397998.632122</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1033572910004664</v>
+        <v>0.08609945745234344</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03353795509841247</v>
+        <v>0.02987255796556363</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1797337368.584635</v>
+        <v>1610270158.452708</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1336128568346839</v>
+        <v>0.1470682494127065</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02105664063612462</v>
+        <v>0.02197296926657329</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4648796565.468086</v>
+        <v>4288089732.095153</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09991452890718257</v>
+        <v>0.1298287412724796</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05626944577923117</v>
+        <v>0.0564039505230757</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1461217621.965835</v>
+        <v>1868198707.402032</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1547763451230775</v>
+        <v>0.1374042856923204</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03283738795652239</v>
+        <v>0.0400928748159741</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3864179431.088852</v>
+        <v>4146137917.498165</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08880077478209432</v>
+        <v>0.08318277205805072</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03053880188734333</v>
+        <v>0.02618529186010408</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3643509797.716283</v>
+        <v>3824206970.933566</v>
       </c>
       <c r="F81" t="n">
-        <v>0.128242210051545</v>
+        <v>0.09054700180969122</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02958417164843897</v>
+        <v>0.02591332044449914</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4275242555.393015</v>
+        <v>4497380425.740682</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1625986864527869</v>
+        <v>0.1612793981775092</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02709250906085189</v>
+        <v>0.02507168552677072</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2368726784.495916</v>
+        <v>1621847610.661673</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1245319412850061</v>
+        <v>0.1428091885349465</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03625126322764153</v>
+        <v>0.04274968115185103</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,16 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1835416311.997537</v>
+        <v>2236561852.114876</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1140616949614119</v>
+        <v>0.1140836948641557</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0470733399551136</v>
+        <v>0.04815734153215268</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2810,16 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2616183831.59033</v>
+        <v>3189054522.221475</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1530891185559005</v>
+        <v>0.159305227675293</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04697926127693001</v>
+        <v>0.05004815265472777</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2235497999.891377</v>
+        <v>2320943112.046857</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1417935579195183</v>
+        <v>0.1540628547307864</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01742698422502996</v>
+        <v>0.02432392001032718</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1465254038.774495</v>
+        <v>1379674822.355265</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1319600466731177</v>
+        <v>0.1887650883373145</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03447593641979325</v>
+        <v>0.03646599319267477</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2310423337.519881</v>
+        <v>2746385553.001532</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1230480963033013</v>
+        <v>0.163145612369207</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03375654661293183</v>
+        <v>0.02962570102796112</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3384234831.636454</v>
+        <v>3491047045.84025</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1409645857376559</v>
+        <v>0.1342046702030067</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02972245593627111</v>
+        <v>0.02713919566824595</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2095057218.886857</v>
+        <v>2020520573.205672</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1253558933205499</v>
+        <v>0.1126891709382182</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0539692850600537</v>
+        <v>0.03621978150468867</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1892904446.705759</v>
+        <v>1443757246.403627</v>
       </c>
       <c r="F91" t="n">
-        <v>0.191478156341864</v>
+        <v>0.1809128706635034</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06100711065471465</v>
+        <v>0.04551430376136909</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2236242637.597974</v>
+        <v>1832775528.513452</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07820169891243131</v>
+        <v>0.08637099422614067</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03660459133509621</v>
+        <v>0.03452089007510366</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3646048692.877766</v>
+        <v>4484638624.350823</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1251515629850491</v>
+        <v>0.1208943643777568</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03382016190365084</v>
+        <v>0.04601478593496211</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1807545126.776651</v>
+        <v>1538498095.953733</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1390559820167949</v>
+        <v>0.1372147889268736</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03663632377002658</v>
+        <v>0.04327358342026327</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2900776139.663426</v>
+        <v>3163947007.158689</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1218819209556541</v>
+        <v>0.1159656969748604</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03835890588966499</v>
+        <v>0.03269105449506234</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1581994528.20055</v>
+        <v>2218724322.382521</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1076241962392213</v>
+        <v>0.1090977955283005</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02915622884122615</v>
+        <v>0.04719568484638554</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5285868788.672893</v>
+        <v>4155073951.165346</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1524500651920983</v>
+        <v>0.1072291454101133</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02535868761295483</v>
+        <v>0.02158357092385092</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3458143375.492908</v>
+        <v>2765968054.869654</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1215373125585305</v>
+        <v>0.1087702215900464</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03282450496004965</v>
+        <v>0.02744486154545478</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2150089117.456172</v>
+        <v>2602958024.118266</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1055564096696835</v>
+        <v>0.1296157748795299</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02838437175828213</v>
+        <v>0.03411985968436109</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4680308900.309049</v>
+        <v>4602228274.13383</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1725240213741219</v>
+        <v>0.1376668166346961</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02073028295114344</v>
+        <v>0.02237763648374165</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2172101499.607246</v>
+        <v>2676268850.102626</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2014222515861709</v>
+        <v>0.1754800650265159</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04419534108215944</v>
+        <v>0.04810319770242188</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_477.xlsx
+++ b/output/fit_clients/fit_round_477.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1851932175.35512</v>
+        <v>2375475462.094986</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07795011205654144</v>
+        <v>0.07866219879446565</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04351768042224967</v>
+        <v>0.04309505972349824</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2567844843.525669</v>
+        <v>2200240217.203116</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1617934285575964</v>
+        <v>0.1293746708256678</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03696081187429653</v>
+        <v>0.04420140861072265</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3442275106.253679</v>
+        <v>3245453020.155382</v>
       </c>
       <c r="F4" t="n">
-        <v>0.126605557320715</v>
+        <v>0.1246853520582572</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03038840550790402</v>
+        <v>0.02972434387884165</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>241</v>
+      </c>
+      <c r="J4" t="n">
+        <v>476</v>
+      </c>
+      <c r="K4" t="n">
+        <v>21.02338176080156</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2708375203.851754</v>
+        <v>3409560315.702817</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08482930452068217</v>
+        <v>0.07763882840694247</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04870917732596027</v>
+        <v>0.03887933390073608</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>201</v>
+      </c>
+      <c r="J5" t="n">
+        <v>475</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1777284983.831284</v>
+        <v>2110897696.629797</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1155299474103505</v>
+        <v>0.08982517929554473</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04454809361856196</v>
+        <v>0.04782022846251784</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2071313537.5323</v>
+        <v>3009262809.018163</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06592560890547013</v>
+        <v>0.07865332095450343</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04669321248840461</v>
+        <v>0.04458622088139348</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +713,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2819339458.16786</v>
+        <v>2908037162.4867</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1340821625070397</v>
+        <v>0.1961210355410118</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03300423714732457</v>
+        <v>0.03317485231863687</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>135</v>
+      </c>
+      <c r="J8" t="n">
+        <v>470</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1568491908.799051</v>
+        <v>1583120804.792157</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1199248835685205</v>
+        <v>0.1462843514796091</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03343588468641654</v>
+        <v>0.03196806690660863</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5489844853.853625</v>
+        <v>5277175824.606976</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2148488217718527</v>
+        <v>0.1490155731293382</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04860860280104919</v>
+        <v>0.03916725702395939</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>364</v>
+      </c>
+      <c r="J10" t="n">
+        <v>476</v>
+      </c>
+      <c r="K10" t="n">
+        <v>27.71798136982185</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2965821040.040716</v>
+        <v>3413628177.666009</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1220439039650185</v>
+        <v>0.1369397733333963</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03349559524284033</v>
+        <v>0.04749616022354591</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>198</v>
+      </c>
+      <c r="J11" t="n">
+        <v>477</v>
+      </c>
+      <c r="K11" t="n">
+        <v>31.15223903752397</v>
       </c>
     </row>
     <row r="12">
@@ -766,17 +857,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2601613886.725015</v>
+        <v>2926726321.981774</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1991693680576381</v>
+        <v>0.1402111942204582</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03398407039460222</v>
+        <v>0.05388688983097396</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5018486206.023751</v>
+        <v>3266114493.014709</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1016538950102123</v>
+        <v>0.07014416899854339</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01918554490590017</v>
+        <v>0.02285545119223122</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>247</v>
+      </c>
+      <c r="J13" t="n">
+        <v>475</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,22 +921,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2511242735.18823</v>
+        <v>2600376268.912229</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1830434590418366</v>
+        <v>0.1838106832328998</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04273022277096757</v>
+        <v>0.04402212744372452</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>109</v>
+      </c>
+      <c r="J14" t="n">
+        <v>476</v>
+      </c>
+      <c r="K14" t="n">
+        <v>24.4360790945054</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1226741534.716938</v>
+        <v>1230919113.315788</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06582880413538766</v>
+        <v>0.09024082885412624</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04934617502639779</v>
+        <v>0.04560286467738248</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +999,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1810264846.081028</v>
+        <v>2029696079.551897</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09073828432883865</v>
+        <v>0.08318077132046045</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03405121453905015</v>
+        <v>0.04712359845122439</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1034,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3605053341.720046</v>
+        <v>4882196754.863978</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1747269553315815</v>
+        <v>0.1708494063337869</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03971004942089008</v>
+        <v>0.0429077113589038</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>233</v>
+      </c>
+      <c r="J17" t="n">
+        <v>477</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,17 +1069,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2795160747.943784</v>
+        <v>3914924570.755634</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1611442021955052</v>
+        <v>0.1670589977948083</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03215000100511101</v>
+        <v>0.028013082355629</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>127</v>
+      </c>
+      <c r="J18" t="n">
+        <v>477</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>870197751.4151075</v>
+        <v>1009504935.049693</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1509741225970152</v>
+        <v>0.1826267854504772</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02232025342458093</v>
+        <v>0.02509880213785014</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1139,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2162139833.005658</v>
+        <v>1982551057.432969</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1007463481292618</v>
+        <v>0.1332402535181831</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0309793327762132</v>
+        <v>0.02738421178265816</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1926608646.112696</v>
+        <v>2445646450.02658</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08523781726154936</v>
+        <v>0.08122587682213202</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03288690958221466</v>
+        <v>0.03386342262449311</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1203,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2933515208.60387</v>
+        <v>3963962839.229916</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1398456878820542</v>
+        <v>0.1288979720171207</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03787444737303653</v>
+        <v>0.04103206736427822</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>139</v>
+      </c>
+      <c r="J22" t="n">
+        <v>477</v>
+      </c>
+      <c r="K22" t="n">
+        <v>43.20161618628905</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1242302986.0514</v>
+        <v>1202352769.580114</v>
       </c>
       <c r="F23" t="n">
-        <v>0.155380341821285</v>
+        <v>0.171877170595959</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05402751729070841</v>
+        <v>0.0364333453172617</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2565895715.218141</v>
+        <v>3370091407.129631</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1028040312706548</v>
+        <v>0.1200586397345099</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03306037430716837</v>
+        <v>0.02943605329459241</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>151</v>
+      </c>
+      <c r="J24" t="n">
+        <v>472</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1010171718.097342</v>
+        <v>1044636939.20124</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08099007074610266</v>
+        <v>0.1071655199366375</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02251090142929178</v>
+        <v>0.02686454536928028</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1311807343.405992</v>
+        <v>1232495391.054509</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1071728816956694</v>
+        <v>0.08443016551905963</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03023088895613249</v>
+        <v>0.03845349826033129</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3140988180.283593</v>
+        <v>4699683484.92923</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1063988498384012</v>
+        <v>0.1244888792079294</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02641554416127522</v>
+        <v>0.01901436660388056</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>211</v>
+      </c>
+      <c r="J27" t="n">
+        <v>477</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,17 +1421,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3676680335.778988</v>
+        <v>2568293492.151487</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1286201158586113</v>
+        <v>0.1289662247687855</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03542381557873239</v>
+        <v>0.03797354974225656</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>117</v>
+      </c>
+      <c r="J28" t="n">
+        <v>471</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,23 +1450,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4113073797.263948</v>
+        <v>3745810865.466172</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09756160850163376</v>
+        <v>0.1323783023967567</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03250151898424003</v>
+        <v>0.03059148277133166</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>379</v>
+      </c>
+      <c r="J29" t="n">
+        <v>477</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1270,17 +1491,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1801657587.191201</v>
+        <v>2382071323.656527</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1281783995358892</v>
+        <v>0.08665975704304832</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03321810893067995</v>
+        <v>0.03451418138939881</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>933246315.0620201</v>
+        <v>1287153903.527071</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07066975812843565</v>
+        <v>0.07057684245580774</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04574737740862677</v>
+        <v>0.04748248369644019</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1782918952.496014</v>
+        <v>1196539655.180643</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1123169362384082</v>
+        <v>0.07761063835544518</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03296262889015534</v>
+        <v>0.02661187995523508</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2487091205.141333</v>
+        <v>1944998125.595732</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1435420170734866</v>
+        <v>0.1839312026040408</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05003677990033145</v>
+        <v>0.04108857469687387</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1631,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1476433100.974638</v>
+        <v>1165199416.932125</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08243450034349623</v>
+        <v>0.1013307272280397</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02298178354422083</v>
+        <v>0.0236371577457493</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>872986317.6298985</v>
+        <v>1307407185.713639</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0785221776181768</v>
+        <v>0.1183670494454765</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03974530627128152</v>
+        <v>0.03337061884100246</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1701,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2690733200.719863</v>
+        <v>3242940567.54917</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1409811414134644</v>
+        <v>0.1657172269286835</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02257767218969489</v>
+        <v>0.0215582191150342</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1736,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2422515947.669063</v>
+        <v>2020959201.189267</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09043540373726497</v>
+        <v>0.0735519113737681</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03275570405755593</v>
+        <v>0.03792850660256079</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1623772254.148325</v>
+        <v>1415251935.459343</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0771482834217898</v>
+        <v>0.08718940914054668</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02862278902065932</v>
+        <v>0.03448405872706604</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1806,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1393105346.569803</v>
+        <v>1787670273.703173</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1551893258092378</v>
+        <v>0.1577026958478456</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03246463764236411</v>
+        <v>0.02745416480909434</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1415672077.458282</v>
+        <v>1615341647.87581</v>
       </c>
       <c r="F40" t="n">
-        <v>0.138643781322529</v>
+        <v>0.1316146290383082</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05000031731801129</v>
+        <v>0.05494310176375077</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2088817096.294766</v>
+        <v>2437580744.544259</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1421366158770416</v>
+        <v>0.1640054263984595</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03588314154245457</v>
+        <v>0.04661472641594254</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1905,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3346264719.291554</v>
+        <v>2795143012.810803</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1132166611457768</v>
+        <v>0.08785694114359727</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0403258175504926</v>
+        <v>0.04663683616022971</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>207</v>
+      </c>
+      <c r="J42" t="n">
+        <v>473</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1946,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2297010023.602022</v>
+        <v>2834644979.918622</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1879724747175013</v>
+        <v>0.1475949576593115</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02382547130879355</v>
+        <v>0.0160073044085964</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2074487681.905473</v>
+        <v>2356276688.933692</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1020193950048808</v>
+        <v>0.09127318389032486</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03485910905151347</v>
+        <v>0.03430245459659265</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2060919505.297825</v>
+        <v>2431850413.239913</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1439582834748565</v>
+        <v>0.1678701623056325</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0469277889120522</v>
+        <v>0.05295166282772207</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2045,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4674441079.889051</v>
+        <v>4268463788.919005</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1394860497538701</v>
+        <v>0.145471591738439</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05605116120968404</v>
+        <v>0.05961964665279207</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>281</v>
+      </c>
+      <c r="J46" t="n">
+        <v>477</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2080,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4884902935.282191</v>
+        <v>4778702947.621125</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1631379910837717</v>
+        <v>0.1859550359974488</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04455340962144489</v>
+        <v>0.05117346515068028</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>216</v>
+      </c>
+      <c r="J47" t="n">
+        <v>476</v>
+      </c>
+      <c r="K47" t="n">
+        <v>30.29857712250946</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2117,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4200031491.076161</v>
+        <v>4181586995.336207</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08038405779457174</v>
+        <v>0.09589960841851554</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02574694142807376</v>
+        <v>0.02824380794597797</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>238</v>
+      </c>
+      <c r="J48" t="n">
+        <v>477</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2152,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1758628786.58656</v>
+        <v>1657234047.926246</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1597570039079098</v>
+        <v>0.1590391748696216</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03061433047289899</v>
+        <v>0.02850643707850768</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2187,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3898204846.728327</v>
+        <v>4010662769.318944</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1514436309036053</v>
+        <v>0.1083511939397388</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04409130990126002</v>
+        <v>0.03829874423947639</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>170</v>
+      </c>
+      <c r="J50" t="n">
+        <v>477</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2222,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1310893479.289655</v>
+        <v>1160462947.974055</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1402868420998059</v>
+        <v>0.194367383605647</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04234896895207056</v>
+        <v>0.05054813712688276</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2257,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5274318659.790687</v>
+        <v>3746634522.59843</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1163175012466987</v>
+        <v>0.1347759915587999</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05893781059966526</v>
+        <v>0.05275467767820166</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>267</v>
+      </c>
+      <c r="J52" t="n">
+        <v>477</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1914,17 +2298,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3728400751.244322</v>
+        <v>2759552395.880258</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1626632234474743</v>
+        <v>0.1308654023304072</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03055058149400397</v>
+        <v>0.03245773574593139</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>74</v>
+      </c>
+      <c r="J53" t="n">
+        <v>471</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2327,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4049863558.12261</v>
+        <v>3938014699.716588</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1151842943206616</v>
+        <v>0.1326375464324284</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04732559717146797</v>
+        <v>0.03475701985859497</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>252</v>
+      </c>
+      <c r="J54" t="n">
+        <v>476</v>
+      </c>
+      <c r="K54" t="n">
+        <v>29.9755052369007</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2364,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4738420507.591947</v>
+        <v>4712057816.958138</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1802959286839751</v>
+        <v>0.1536414223452417</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03096952496727589</v>
+        <v>0.02340287041647016</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>236</v>
+      </c>
+      <c r="J55" t="n">
+        <v>476</v>
+      </c>
+      <c r="K55" t="n">
+        <v>30.03608395363175</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2401,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1291684692.001077</v>
+        <v>1719979875.169245</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1220001232391359</v>
+        <v>0.1100203590302041</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04391611845568456</v>
+        <v>0.05590337357927427</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2436,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4269389287.312047</v>
+        <v>3150206518.755416</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1532271144208601</v>
+        <v>0.1406289228295585</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02079166121374494</v>
+        <v>0.02502100249721353</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>205</v>
+      </c>
+      <c r="J57" t="n">
+        <v>475</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2471,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1414184616.834118</v>
+        <v>1231897489.122822</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2022797843998281</v>
+        <v>0.1329133759010906</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03628421326088827</v>
+        <v>0.02582694019326007</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2506,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5365168410.664624</v>
+        <v>5184737710.372</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1236292540652239</v>
+        <v>0.1149721891353476</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04864906156602272</v>
+        <v>0.04766505196950586</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>234</v>
+      </c>
+      <c r="J59" t="n">
+        <v>476</v>
+      </c>
+      <c r="K59" t="n">
+        <v>28.82090128865123</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2543,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2337811111.948769</v>
+        <v>3293108612.97577</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1956335250475365</v>
+        <v>0.1510787464454676</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03048854833322827</v>
+        <v>0.0309203704699784</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>96</v>
+      </c>
+      <c r="J60" t="n">
+        <v>477</v>
+      </c>
+      <c r="K60" t="n">
+        <v>42.18605702472193</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3407661943.863211</v>
+        <v>2809430818.855659</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1782715607416658</v>
+        <v>0.1436959572276462</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02048627792246742</v>
+        <v>0.02691874336849761</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1778613865.270498</v>
+        <v>1278246459.949325</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1917239576276498</v>
+        <v>0.1266368177466233</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04555308177705358</v>
+        <v>0.04760596575888193</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2650,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5129876401.268909</v>
+        <v>5248491345.371367</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08407731142562209</v>
+        <v>0.07466919350478483</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03647245102365861</v>
+        <v>0.02891755648309289</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>238</v>
+      </c>
+      <c r="J63" t="n">
+        <v>476</v>
+      </c>
+      <c r="K63" t="n">
+        <v>29.88360447054827</v>
       </c>
     </row>
     <row r="64">
@@ -2222,17 +2693,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5453394777.515697</v>
+        <v>4179367215.667591</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1578753850277085</v>
+        <v>0.191418142822837</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02966406242104311</v>
+        <v>0.02262664471161496</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>238</v>
+      </c>
+      <c r="J64" t="n">
+        <v>477</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2722,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4012376545.337271</v>
+        <v>4035292869.999568</v>
       </c>
       <c r="F65" t="n">
-        <v>0.148995402366684</v>
+        <v>0.1496829354939735</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02734435912638011</v>
+        <v>0.02027764608767707</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>336</v>
+      </c>
+      <c r="J65" t="n">
+        <v>476</v>
+      </c>
+      <c r="K65" t="n">
+        <v>27.85223008912689</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2759,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5203171878.128813</v>
+        <v>3818744025.963268</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1407044665195905</v>
+        <v>0.1518200532519976</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05063111258731064</v>
+        <v>0.04433543182417196</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>235</v>
+      </c>
+      <c r="J66" t="n">
+        <v>477</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3073303220.9603</v>
+        <v>2828412050.623795</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0908020092564492</v>
+        <v>0.09351714662247622</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03568157516282865</v>
+        <v>0.03182802842737599</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>14</v>
+      </c>
+      <c r="J67" t="n">
+        <v>456</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2829,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3873824327.056669</v>
+        <v>5510396014.865169</v>
       </c>
       <c r="F68" t="n">
-        <v>0.141323857012131</v>
+        <v>0.1013296867947132</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04484230201081207</v>
+        <v>0.03815417266242537</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>259</v>
+      </c>
+      <c r="J68" t="n">
+        <v>477</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2870,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1810433066.5176</v>
+        <v>2463696504.919152</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1156605166800758</v>
+        <v>0.1525620879542929</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04953785996886882</v>
+        <v>0.04804464926612709</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2899,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3414286681.359606</v>
+        <v>3566263918.960948</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0941049319320203</v>
+        <v>0.09549048655722991</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04325912221178472</v>
+        <v>0.04657194194595052</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>71</v>
+      </c>
+      <c r="J70" t="n">
+        <v>468</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2940,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4322575246.797619</v>
+        <v>4290593729.108474</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1689924775953667</v>
+        <v>0.1163604032251764</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02976951579658142</v>
+        <v>0.02521959298969352</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>323</v>
+      </c>
+      <c r="J71" t="n">
+        <v>476</v>
+      </c>
+      <c r="K71" t="n">
+        <v>28.73297541684568</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2971,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2130344816.933186</v>
+        <v>2134392360.679121</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08636806514543727</v>
+        <v>0.08083213687683649</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04280205503502166</v>
+        <v>0.03341134439242469</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3006,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2916809939.699821</v>
+        <v>3566558339.980873</v>
       </c>
       <c r="F73" t="n">
-        <v>0.106813472250611</v>
+        <v>0.1108183360569813</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04817100557481527</v>
+        <v>0.04997402684252534</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>43</v>
+      </c>
+      <c r="J73" t="n">
+        <v>477</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3047,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3653833273.519989</v>
+        <v>2846442916.57889</v>
       </c>
       <c r="F74" t="n">
-        <v>0.118636284970799</v>
+        <v>0.1728941899652113</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02480886412222037</v>
+        <v>0.02721499847691089</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>142</v>
+      </c>
+      <c r="J74" t="n">
+        <v>474</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3076,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1827556125.30804</v>
+        <v>1624077338.832572</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1115186325098314</v>
+        <v>0.1333083738813707</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03751288858420455</v>
+        <v>0.02717528298237375</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3111,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4570397998.632122</v>
+        <v>4763749817.229955</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08609945745234344</v>
+        <v>0.1245527672648667</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02987255796556363</v>
+        <v>0.02785958533796926</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>228</v>
+      </c>
+      <c r="J76" t="n">
+        <v>476</v>
+      </c>
+      <c r="K76" t="n">
+        <v>30.42064538497345</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3148,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1610270158.452708</v>
+        <v>1686618121.057924</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1470682494127065</v>
+        <v>0.1434351187735892</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02197296926657329</v>
+        <v>0.024715094391907</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3183,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4288089732.095153</v>
+        <v>3639845138.992658</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1298287412724796</v>
+        <v>0.1277379184416064</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0564039505230757</v>
+        <v>0.04343421805404862</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>237</v>
+      </c>
+      <c r="J78" t="n">
+        <v>477</v>
+      </c>
+      <c r="K78" t="n">
+        <v>32.09215324810148</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3226,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1868198707.402032</v>
+        <v>1845214273.749198</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1374042856923204</v>
+        <v>0.1679449073338159</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0400928748159741</v>
+        <v>0.03379354476524603</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3255,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4146137917.498165</v>
+        <v>3682940826.858568</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08318277205805072</v>
+        <v>0.07271199037461525</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02618529186010408</v>
+        <v>0.02869264967661119</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>233</v>
+      </c>
+      <c r="J80" t="n">
+        <v>476</v>
+      </c>
+      <c r="K80" t="n">
+        <v>26.720574038968</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3292,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3824206970.933566</v>
+        <v>3668181037.042873</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09054700180969122</v>
+        <v>0.09125067783226601</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02591332044449914</v>
+        <v>0.02279600766137468</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>222</v>
+      </c>
+      <c r="J81" t="n">
+        <v>477</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4497380425.740682</v>
+        <v>3559232319.798993</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1612793981775092</v>
+        <v>0.1861510207299953</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02507168552677072</v>
+        <v>0.02493152911627438</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>314</v>
+      </c>
+      <c r="J82" t="n">
+        <v>476</v>
+      </c>
+      <c r="K82" t="n">
+        <v>27.1677501816585</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1621847610.661673</v>
+        <v>2043868841.778379</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1428091885349465</v>
+        <v>0.1464468093670467</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04274968115185103</v>
+        <v>0.03777894092986802</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2236561852.114876</v>
+        <v>1842972129.491019</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1140836948641557</v>
+        <v>0.08481940945105386</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04815734153215268</v>
+        <v>0.0412266932915114</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,22 +3434,31 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3189054522.221475</v>
+        <v>2938901195.605877</v>
       </c>
       <c r="F85" t="n">
-        <v>0.159305227675293</v>
+        <v>0.1769077859685483</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05004815265472777</v>
+        <v>0.0524036399596582</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>69</v>
+      </c>
+      <c r="J85" t="n">
+        <v>477</v>
+      </c>
+      <c r="K85" t="n">
+        <v>40.63706248921139</v>
       </c>
     </row>
     <row r="86">
@@ -2838,17 +3477,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2320943112.046857</v>
+        <v>1968920353.820968</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1540628547307864</v>
+        <v>0.1120049360720663</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02432392001032718</v>
+        <v>0.02701488885088667</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3512,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1379674822.355265</v>
+        <v>1174170356.469342</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1887650883373145</v>
+        <v>0.1215081169019995</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03646599319267477</v>
+        <v>0.0370373971103615</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,22 +3541,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2746385553.001532</v>
+        <v>2355973272.011324</v>
       </c>
       <c r="F88" t="n">
-        <v>0.163145612369207</v>
+        <v>0.1416785769067567</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02962570102796112</v>
+        <v>0.03365763205325431</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>67</v>
+      </c>
+      <c r="J88" t="n">
+        <v>476</v>
+      </c>
+      <c r="K88" t="n">
+        <v>22.6966117330673</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3491047045.84025</v>
+        <v>2985160442.038443</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1342046702030067</v>
+        <v>0.09929174628985592</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02713919566824595</v>
+        <v>0.03259041788812297</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>27</v>
+      </c>
+      <c r="J89" t="n">
+        <v>466</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2020520573.205672</v>
+        <v>1489012663.058502</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1126891709382182</v>
+        <v>0.1167549011538768</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03621978150468867</v>
+        <v>0.04931254353141116</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3654,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1443757246.403627</v>
+        <v>1985901660.691241</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1809128706635034</v>
+        <v>0.1788532351802724</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04551430376136909</v>
+        <v>0.04740515315249131</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1832775528.513452</v>
+        <v>2188212509.461626</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08637099422614067</v>
+        <v>0.07473414735604778</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03452089007510366</v>
+        <v>0.04167055540386303</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4484638624.350823</v>
+        <v>3742931270.502412</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1208943643777568</v>
+        <v>0.09034042276917814</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04601478593496211</v>
+        <v>0.03793391342159682</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>227</v>
+      </c>
+      <c r="J93" t="n">
+        <v>477</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1538498095.953733</v>
+        <v>1760865439.439751</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1372147889268736</v>
+        <v>0.1222574376651195</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04327358342026327</v>
+        <v>0.02753846246339547</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3794,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3163947007.158689</v>
+        <v>2269565843.808757</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1159656969748604</v>
+        <v>0.1356170540694474</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03269105449506234</v>
+        <v>0.04034208091460099</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2218724322.382521</v>
+        <v>1629527933.192771</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1090977955283005</v>
+        <v>0.1295646707487297</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04719568484638554</v>
+        <v>0.03746862231882827</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4155073951.165346</v>
+        <v>5304506633.851735</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1072291454101133</v>
+        <v>0.1522217386137239</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02158357092385092</v>
+        <v>0.02167495339693035</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>248</v>
+      </c>
+      <c r="J97" t="n">
+        <v>477</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2765968054.869654</v>
+        <v>3459229041.140248</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1087702215900464</v>
+        <v>0.1066081989777525</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02744486154545478</v>
+        <v>0.01997269226612444</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>121</v>
+      </c>
+      <c r="J98" t="n">
+        <v>475</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2602958024.118266</v>
+        <v>3205892858.36934</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1296157748795299</v>
+        <v>0.1108449062253545</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03411985968436109</v>
+        <v>0.02863060489023998</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,16 +3969,25 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4602228274.13383</v>
+        <v>3552398131.40178</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1376668166346961</v>
+        <v>0.1505939574158668</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02237763648374165</v>
+        <v>0.02769837467494818</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>223</v>
+      </c>
+      <c r="J100" t="n">
+        <v>476</v>
+      </c>
+      <c r="K100" t="n">
+        <v>30.3420645936474</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2676268850.102626</v>
+        <v>3461129480.947856</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1754800650265159</v>
+        <v>0.1379856672506092</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04810319770242188</v>
+        <v>0.03601754074428422</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>46</v>
+      </c>
+      <c r="J101" t="n">
+        <v>445</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
